--- a/biology/Zoologie/Achim-Rüdiger_Börner/Achim-Rüdiger_Börner.xlsx
+++ b/biology/Zoologie/Achim-Rüdiger_Börner/Achim-Rüdiger_Börner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achim-R%C3%BCdiger_B%C3%B6rner</t>
+          <t>Achim-Rüdiger_Börner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achim-Rüdiger Börner est un herpétologue allemand né en 1955[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achim-Rüdiger Börner est un herpétologue allemand né en 1955.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achim-R%C3%BCdiger_B%C3%B6rner</t>
+          <t>Achim-Rüdiger_Börner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Börner a principalement travaillé sur la taxinomie des geckos, notamment sur les genres Eublepharis[2] et Phelsuma (en collaboration avec Walter W. Minuth)[1]. Il est membre de la Societas Europaea Herpetologica (SEH)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Börner a principalement travaillé sur la taxinomie des geckos, notamment sur les genres Eublepharis et Phelsuma (en collaboration avec Walter W. Minuth). Il est membre de la Societas Europaea Herpetologica (SEH).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achim-R%C3%BCdiger_B%C3%B6rner</t>
+          <t>Achim-Rüdiger_Börner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette liste n'est pas exhaustive :
 Börner, 1974 : Ein neuer Lidgecko der Gattung Eublepharis Gray 1827. Miscellaneous Articles in Saurology, n. 4, p. 7-14.
